--- a/SpringBootTwitterBootstrapWebjar/src/main/resources/requirement/RequirementDoc.xlsx
+++ b/SpringBootTwitterBootstrapWebjar/src/main/resources/requirement/RequirementDoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22830" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12405" windowHeight="3225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I9"/>
 </workbook>
 </file>
 
@@ -111,7 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -123,220 +124,54 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -659,7 +494,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,52 +578,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1 A8:D1048576 A1:D4 B5:D7">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$D2=Open</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 A8:D26 A1:D4 B5:D7">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$D2=Completed</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E4 B5:E7 A6:A7">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>"$D2=""Completed"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$D5=Open</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>$D5=Completed</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>$D6=Open</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$D6=Completed</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$D6=Open</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D6=Completed</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"$D2=""Completed"""</formula>
     </cfRule>
   </conditionalFormatting>
